--- a/database/industries/khodro/khetrak/cost/yearly.xlsx
+++ b/database/industries/khodro/khetrak/cost/yearly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\khodro\khetrak\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\khodro\khetrak\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA7770A-C675-43C9-895D-DEC7EE86DFB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -183,7 +184,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -353,7 +354,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -365,7 +366,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -412,6 +413,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -447,6 +465,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -598,7 +633,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -935,7 +970,7 @@
         <v>410718</v>
       </c>
       <c r="I19" s="11">
-        <v>238238</v>
+        <v>320440</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">

--- a/database/industries/khodro/khetrak/cost/yearly.xlsx
+++ b/database/industries/khodro/khetrak/cost/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\khodro\khetrak\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\khodro\khetrak\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA7770A-C675-43C9-895D-DEC7EE86DFB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2281880E-64F7-4FFA-9DA8-255794CAC735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="53">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,9 +34,6 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
-    <t>دوازده ماهه منتهی به 1396/12</t>
-  </si>
-  <si>
     <t>دوازده ماهه منتهی به 1397/12</t>
   </si>
   <si>
@@ -49,6 +46,9 @@
     <t>دوازده ماهه منتهی به 1400/12</t>
   </si>
   <si>
+    <t>دوازده ماهه منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>مواد مستقیم مصرفی</t>
   </si>
   <si>
@@ -100,46 +100,46 @@
     <t>تن</t>
   </si>
   <si>
+    <t>مواد اولیه</t>
+  </si>
+  <si>
+    <t>مقدار خرید طی دوره</t>
+  </si>
+  <si>
+    <t>مقدار مصرف طی دوره</t>
+  </si>
+  <si>
+    <t>مقدار موجودی پایان دوره</t>
+  </si>
+  <si>
+    <t>مبلغ موجودی اول دوره</t>
+  </si>
+  <si>
+    <t>میلیون ریال</t>
+  </si>
+  <si>
+    <t>مبلغ خرید طی دوره</t>
+  </si>
+  <si>
+    <t>مبلغ مصرف طی دوره</t>
+  </si>
+  <si>
+    <t>مبلغ موجودی پایان دوره</t>
+  </si>
+  <si>
+    <t>نرخ موجودی اول دوره</t>
+  </si>
+  <si>
+    <t>تن / ریال</t>
+  </si>
+  <si>
+    <t>/ ریال</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
-    <t>مواد اولیه</t>
-  </si>
-  <si>
-    <t>مقدار خرید طی دوره</t>
-  </si>
-  <si>
-    <t>مقدار مصرف طی دوره</t>
-  </si>
-  <si>
-    <t>مقدار موجودی پایان دوره</t>
-  </si>
-  <si>
-    <t>مبلغ موجودی اول دوره</t>
-  </si>
-  <si>
-    <t>میلیون ریال</t>
-  </si>
-  <si>
-    <t>مبلغ خرید طی دوره</t>
-  </si>
-  <si>
-    <t>مبلغ مصرف طی دوره</t>
-  </si>
-  <si>
-    <t>مبلغ موجودی پایان دوره</t>
-  </si>
-  <si>
-    <t>نرخ موجودی اول دوره</t>
-  </si>
-  <si>
-    <t>تن / ریال</t>
-  </si>
-  <si>
     <t>نرخ خرید طی دوره</t>
-  </si>
-  <si>
-    <t>/ ریال</t>
   </si>
   <si>
     <t>نرخ مصرف طی دوره</t>
@@ -634,16 +634,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I129"/>
+  <dimension ref="B1:I131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -653,7 +653,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -665,7 +665,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -677,7 +677,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -687,7 +687,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -699,7 +699,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -711,7 +711,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -721,7 +721,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -743,7 +743,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -753,161 +753,161 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>949476</v>
+        <v>1676459</v>
       </c>
       <c r="F10" s="9">
-        <v>1676459</v>
+        <v>2430967</v>
       </c>
       <c r="G10" s="9">
-        <v>2430967</v>
+        <v>5266677</v>
       </c>
       <c r="H10" s="9">
-        <v>5266677</v>
+        <v>8589132</v>
       </c>
       <c r="I10" s="9">
-        <v>8589132</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+        <v>12942631</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>350752</v>
+        <v>472699</v>
       </c>
       <c r="F11" s="11">
-        <v>472699</v>
+        <v>585070</v>
       </c>
       <c r="G11" s="11">
-        <v>585070</v>
+        <v>920973</v>
       </c>
       <c r="H11" s="11">
-        <v>920973</v>
+        <v>1412078</v>
       </c>
       <c r="I11" s="11">
-        <v>1412078</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2826626</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>552747</v>
+        <v>677069</v>
       </c>
       <c r="F12" s="9">
-        <v>677069</v>
+        <v>805317</v>
       </c>
       <c r="G12" s="9">
-        <v>805317</v>
+        <v>1262355</v>
       </c>
       <c r="H12" s="9">
-        <v>1262355</v>
+        <v>2189823</v>
       </c>
       <c r="I12" s="9">
-        <v>2189823</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4267121</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
-        <v>1852975</v>
+        <v>2826227</v>
       </c>
       <c r="F13" s="13">
-        <v>2826227</v>
+        <v>3821354</v>
       </c>
       <c r="G13" s="13">
-        <v>3821354</v>
+        <v>7450005</v>
       </c>
       <c r="H13" s="13">
-        <v>7450005</v>
+        <v>12191033</v>
       </c>
       <c r="I13" s="13">
-        <v>12191033</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>20036378</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
-        <v>-22626</v>
+        <v>-55298</v>
       </c>
       <c r="F14" s="9">
-        <v>-55298</v>
+        <v>-52606</v>
       </c>
       <c r="G14" s="9">
-        <v>-52606</v>
+        <v>-33315</v>
       </c>
       <c r="H14" s="9">
-        <v>-33315</v>
+        <v>-61553</v>
       </c>
       <c r="I14" s="9">
-        <v>-61553</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-82666</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
-        <v>1830349</v>
+        <v>2770929</v>
       </c>
       <c r="F15" s="13">
-        <v>2770929</v>
+        <v>3768748</v>
       </c>
       <c r="G15" s="13">
-        <v>3768748</v>
+        <v>7416690</v>
       </c>
       <c r="H15" s="13">
-        <v>7416690</v>
+        <v>12129480</v>
       </c>
       <c r="I15" s="13">
-        <v>12129480</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <v>19953712</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
-        <v>4082</v>
+        <v>-9849</v>
       </c>
       <c r="F16" s="9">
-        <v>-9849</v>
+        <v>-12819</v>
       </c>
       <c r="G16" s="9">
-        <v>-12819</v>
+        <v>-35749</v>
       </c>
       <c r="H16" s="9">
-        <v>-35749</v>
+        <v>-28608</v>
       </c>
       <c r="I16" s="9">
-        <v>-28608</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-1117321</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
@@ -929,139 +929,139 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
-        <v>1834431</v>
+        <v>2761080</v>
       </c>
       <c r="F18" s="15">
-        <v>2761080</v>
+        <v>3755929</v>
       </c>
       <c r="G18" s="15">
-        <v>3755929</v>
+        <v>7380941</v>
       </c>
       <c r="H18" s="15">
-        <v>7380941</v>
+        <v>12100872</v>
       </c>
       <c r="I18" s="15">
-        <v>12100872</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18836391</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>143115</v>
+        <v>178315</v>
       </c>
       <c r="F19" s="11">
-        <v>178315</v>
+        <v>250329</v>
       </c>
       <c r="G19" s="11">
-        <v>250329</v>
+        <v>410718</v>
       </c>
       <c r="H19" s="11">
-        <v>410718</v>
+        <v>320440</v>
       </c>
       <c r="I19" s="11">
-        <v>320440</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>982408</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>-178315</v>
+        <v>-250329</v>
       </c>
       <c r="F20" s="9">
-        <v>-250329</v>
+        <v>-410718</v>
       </c>
       <c r="G20" s="9">
-        <v>-410718</v>
+        <v>-320440</v>
       </c>
       <c r="H20" s="9">
-        <v>-320440</v>
+        <v>-982408</v>
       </c>
       <c r="I20" s="9">
-        <v>-982408</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-579168</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
-        <v>1799231</v>
+        <v>2689066</v>
       </c>
       <c r="F21" s="13">
-        <v>2689066</v>
+        <v>3595540</v>
       </c>
       <c r="G21" s="13">
-        <v>3595540</v>
+        <v>7471219</v>
       </c>
       <c r="H21" s="13">
-        <v>7471219</v>
+        <v>11438904</v>
       </c>
       <c r="I21" s="13">
-        <v>11438904</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+        <v>19239631</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9">
-        <v>39322</v>
+        <v>0</v>
       </c>
       <c r="F22" s="9">
         <v>0</v>
       </c>
       <c r="G22" s="9">
-        <v>0</v>
+        <v>-157614</v>
       </c>
       <c r="H22" s="9">
-        <v>-157614</v>
+        <v>-119634</v>
       </c>
       <c r="I22" s="9">
-        <v>-119634</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+        <v>545544</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
-        <v>1838553</v>
+        <v>2689066</v>
       </c>
       <c r="F23" s="13">
-        <v>2689066</v>
+        <v>3595540</v>
       </c>
       <c r="G23" s="13">
-        <v>3595540</v>
+        <v>7313605</v>
       </c>
       <c r="H23" s="13">
-        <v>7313605</v>
+        <v>11319270</v>
       </c>
       <c r="I23" s="13">
-        <v>11319270</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+        <v>19785175</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1071,7 +1071,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1081,7 +1081,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1091,7 +1091,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>23</v>
       </c>
@@ -1113,7 +1113,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1123,7 +1123,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>24</v>
       </c>
@@ -1131,30 +1131,30 @@
         <v>25</v>
       </c>
       <c r="D29" s="9"/>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="9">
+        <v>616</v>
+      </c>
+      <c r="F29" s="9">
+        <v>669</v>
+      </c>
+      <c r="G29" s="9">
+        <v>24</v>
+      </c>
+      <c r="H29" s="9">
+        <v>413</v>
+      </c>
+      <c r="I29" s="9">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B30" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="F29" s="9">
-        <v>616</v>
-      </c>
-      <c r="G29" s="9">
-        <v>669</v>
-      </c>
-      <c r="H29" s="9">
-        <v>24</v>
-      </c>
-      <c r="I29" s="9">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="10" t="s">
-        <v>27</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
-      <c r="E30" s="11" t="s">
-        <v>26</v>
+      <c r="E30" s="11">
+        <v>0</v>
       </c>
       <c r="F30" s="11">
         <v>0</v>
@@ -1166,32 +1166,32 @@
         <v>0</v>
       </c>
       <c r="I30" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
       <c r="E31" s="15">
-        <v>0</v>
+        <v>616</v>
       </c>
       <c r="F31" s="15">
-        <v>616</v>
+        <v>669</v>
       </c>
       <c r="G31" s="15">
-        <v>669</v>
+        <v>24</v>
       </c>
       <c r="H31" s="15">
-        <v>24</v>
+        <v>413</v>
       </c>
       <c r="I31" s="15">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1201,7 +1201,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1211,7 +1211,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1221,9 +1221,9 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B35" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -1243,7 +1243,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1253,7 +1253,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
         <v>24</v>
       </c>
@@ -1261,30 +1261,30 @@
         <v>25</v>
       </c>
       <c r="D37" s="9"/>
-      <c r="E37" s="9" t="s">
+      <c r="E37" s="9">
+        <v>46062</v>
+      </c>
+      <c r="F37" s="9">
+        <v>43760</v>
+      </c>
+      <c r="G37" s="9">
+        <v>48043</v>
+      </c>
+      <c r="H37" s="9">
+        <v>52294</v>
+      </c>
+      <c r="I37" s="9">
+        <v>61618</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B38" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="F37" s="9">
-        <v>46062</v>
-      </c>
-      <c r="G37" s="9">
-        <v>43760</v>
-      </c>
-      <c r="H37" s="9">
-        <v>48043</v>
-      </c>
-      <c r="I37" s="9">
-        <v>52294</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="10" t="s">
-        <v>27</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
-      <c r="E38" s="11" t="s">
-        <v>26</v>
+      <c r="E38" s="11">
+        <v>0</v>
       </c>
       <c r="F38" s="11">
         <v>0</v>
@@ -1293,35 +1293,35 @@
         <v>0</v>
       </c>
       <c r="H38" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
       <c r="E39" s="15">
-        <v>0</v>
+        <v>46062</v>
       </c>
       <c r="F39" s="15">
-        <v>46062</v>
+        <v>43760</v>
       </c>
       <c r="G39" s="15">
-        <v>43760</v>
+        <v>48043</v>
       </c>
       <c r="H39" s="15">
-        <v>48043</v>
+        <v>52296</v>
       </c>
       <c r="I39" s="15">
-        <v>52296</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+        <v>61620</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1331,7 +1331,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1341,7 +1341,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1351,9 +1351,9 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B43" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
@@ -1373,7 +1373,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1383,7 +1383,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="8" t="s">
         <v>24</v>
       </c>
@@ -1391,30 +1391,30 @@
         <v>25</v>
       </c>
       <c r="D45" s="9"/>
-      <c r="E45" s="9" t="s">
+      <c r="E45" s="9">
+        <v>46009</v>
+      </c>
+      <c r="F45" s="9">
+        <v>44405</v>
+      </c>
+      <c r="G45" s="9">
+        <v>47654</v>
+      </c>
+      <c r="H45" s="9">
+        <v>51798</v>
+      </c>
+      <c r="I45" s="9">
+        <v>60636</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B46" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="F45" s="9">
-        <v>46009</v>
-      </c>
-      <c r="G45" s="9">
-        <v>44405</v>
-      </c>
-      <c r="H45" s="9">
-        <v>47654</v>
-      </c>
-      <c r="I45" s="9">
-        <v>51798</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="10" t="s">
-        <v>27</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="11"/>
-      <c r="E46" s="11" t="s">
-        <v>26</v>
+      <c r="E46" s="11">
+        <v>0</v>
       </c>
       <c r="F46" s="11">
         <v>0</v>
@@ -1423,35 +1423,35 @@
         <v>0</v>
       </c>
       <c r="H46" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15"/>
       <c r="E47" s="15">
-        <v>0</v>
+        <v>46009</v>
       </c>
       <c r="F47" s="15">
-        <v>46009</v>
+        <v>44405</v>
       </c>
       <c r="G47" s="15">
-        <v>44405</v>
+        <v>47654</v>
       </c>
       <c r="H47" s="15">
-        <v>47654</v>
+        <v>51800</v>
       </c>
       <c r="I47" s="15">
-        <v>51800</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+        <v>60638</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1461,7 +1461,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1471,7 +1471,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1481,9 +1481,9 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B51" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
@@ -1503,7 +1503,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1513,7 +1513,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
         <v>24</v>
       </c>
@@ -1521,30 +1521,30 @@
         <v>25</v>
       </c>
       <c r="D53" s="9"/>
-      <c r="E53" s="9" t="s">
+      <c r="E53" s="9">
+        <v>669</v>
+      </c>
+      <c r="F53" s="9">
+        <v>24</v>
+      </c>
+      <c r="G53" s="9">
+        <v>413</v>
+      </c>
+      <c r="H53" s="9">
+        <v>909</v>
+      </c>
+      <c r="I53" s="9">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B54" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="F53" s="9">
-        <v>669</v>
-      </c>
-      <c r="G53" s="9">
-        <v>24</v>
-      </c>
-      <c r="H53" s="9">
-        <v>413</v>
-      </c>
-      <c r="I53" s="9">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B54" s="10" t="s">
-        <v>27</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11"/>
-      <c r="E54" s="11" t="s">
-        <v>26</v>
+      <c r="E54" s="11">
+        <v>0</v>
       </c>
       <c r="F54" s="11">
         <v>0</v>
@@ -1556,32 +1556,32 @@
         <v>0</v>
       </c>
       <c r="I54" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C55" s="15"/>
       <c r="D55" s="15"/>
       <c r="E55" s="15">
-        <v>0</v>
+        <v>669</v>
       </c>
       <c r="F55" s="15">
-        <v>669</v>
+        <v>24</v>
       </c>
       <c r="G55" s="15">
-        <v>24</v>
+        <v>413</v>
       </c>
       <c r="H55" s="15">
-        <v>413</v>
+        <v>909</v>
       </c>
       <c r="I55" s="15">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1591,7 +1591,7 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1601,7 +1601,7 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1611,9 +1611,9 @@
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B59" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
@@ -1633,7 +1633,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1643,77 +1643,77 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D61" s="9"/>
-      <c r="E61" s="9" t="s">
+      <c r="E61" s="9">
+        <v>9494</v>
+      </c>
+      <c r="F61" s="9">
+        <v>15852</v>
+      </c>
+      <c r="G61" s="9">
+        <v>410</v>
+      </c>
+      <c r="H61" s="9">
+        <v>23414</v>
+      </c>
+      <c r="I61" s="9">
+        <v>78517</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B62" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F61" s="9">
-        <v>9494</v>
-      </c>
-      <c r="G61" s="9">
-        <v>15852</v>
-      </c>
-      <c r="H61" s="9">
-        <v>410</v>
-      </c>
-      <c r="I61" s="9">
-        <v>23414</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B62" s="10" t="s">
-        <v>27</v>
-      </c>
       <c r="C62" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D62" s="11"/>
-      <c r="E62" s="11" t="s">
-        <v>26</v>
+      <c r="E62" s="11">
+        <v>67706</v>
       </c>
       <c r="F62" s="11">
-        <v>67706</v>
+        <v>114742</v>
       </c>
       <c r="G62" s="11">
-        <v>114742</v>
+        <v>147202</v>
       </c>
       <c r="H62" s="11">
-        <v>147202</v>
+        <v>292780</v>
       </c>
       <c r="I62" s="11">
-        <v>292780</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+        <v>563993</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C63" s="15"/>
       <c r="D63" s="15"/>
       <c r="E63" s="15">
-        <v>0</v>
+        <v>77200</v>
       </c>
       <c r="F63" s="15">
-        <v>77200</v>
+        <v>130594</v>
       </c>
       <c r="G63" s="15">
-        <v>130594</v>
+        <v>147612</v>
       </c>
       <c r="H63" s="15">
-        <v>147612</v>
+        <v>316194</v>
       </c>
       <c r="I63" s="15">
-        <v>316194</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+        <v>642510</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1723,7 +1723,7 @@
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1733,7 +1733,7 @@
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -1743,9 +1743,9 @@
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
     </row>
-    <row r="67" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B67" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
@@ -1765,7 +1765,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1775,77 +1775,77 @@
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D69" s="9"/>
-      <c r="E69" s="9" t="s">
+      <c r="E69" s="9">
+        <v>1155294</v>
+      </c>
+      <c r="F69" s="9">
+        <v>1533921</v>
+      </c>
+      <c r="G69" s="9">
+        <v>3647986</v>
+      </c>
+      <c r="H69" s="9">
+        <v>5891721</v>
+      </c>
+      <c r="I69" s="9">
+        <v>8451309</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B70" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F69" s="9">
-        <v>1155294</v>
-      </c>
-      <c r="G69" s="9">
-        <v>1533921</v>
-      </c>
-      <c r="H69" s="9">
-        <v>3647986</v>
-      </c>
-      <c r="I69" s="9">
-        <v>5891721</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B70" s="10" t="s">
-        <v>27</v>
-      </c>
       <c r="C70" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D70" s="11"/>
-      <c r="E70" s="11" t="s">
-        <v>26</v>
+      <c r="E70" s="11">
+        <v>574559</v>
       </c>
       <c r="F70" s="11">
-        <v>574559</v>
+        <v>914064</v>
       </c>
       <c r="G70" s="11">
-        <v>914064</v>
+        <v>1787273</v>
       </c>
       <c r="H70" s="11">
-        <v>1787273</v>
+        <v>3023727</v>
       </c>
       <c r="I70" s="11">
-        <v>3023727</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5794421</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C71" s="15"/>
       <c r="D71" s="15"/>
       <c r="E71" s="15">
-        <v>0</v>
+        <v>1729853</v>
       </c>
       <c r="F71" s="15">
-        <v>1729853</v>
+        <v>2447985</v>
       </c>
       <c r="G71" s="15">
-        <v>2447985</v>
+        <v>5435259</v>
       </c>
       <c r="H71" s="15">
-        <v>5435259</v>
+        <v>8915448</v>
       </c>
       <c r="I71" s="15">
-        <v>8915448</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+        <v>14245730</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -1855,7 +1855,7 @@
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -1865,7 +1865,7 @@
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -1875,9 +1875,9 @@
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
     </row>
-    <row r="75" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B75" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
@@ -1897,7 +1897,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -1907,77 +1907,77 @@
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D77" s="9"/>
-      <c r="E77" s="9" t="s">
+      <c r="E77" s="9">
+        <v>1148936</v>
+      </c>
+      <c r="F77" s="9">
+        <v>1549363</v>
+      </c>
+      <c r="G77" s="9">
+        <v>3624982</v>
+      </c>
+      <c r="H77" s="9">
+        <v>5836618</v>
+      </c>
+      <c r="I77" s="9">
+        <v>8212526</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B78" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F77" s="9">
-        <v>1148936</v>
-      </c>
-      <c r="G77" s="9">
-        <v>1549363</v>
-      </c>
-      <c r="H77" s="9">
-        <v>3624982</v>
-      </c>
-      <c r="I77" s="9">
-        <v>5836618</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B78" s="10" t="s">
-        <v>27</v>
-      </c>
       <c r="C78" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D78" s="11"/>
-      <c r="E78" s="11" t="s">
-        <v>26</v>
+      <c r="E78" s="11">
+        <v>527523</v>
       </c>
       <c r="F78" s="11">
-        <v>527523</v>
+        <v>881604</v>
       </c>
       <c r="G78" s="11">
-        <v>881604</v>
+        <v>1641695</v>
       </c>
       <c r="H78" s="11">
-        <v>1641695</v>
+        <v>2752514</v>
       </c>
       <c r="I78" s="11">
-        <v>2752514</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4730105</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C79" s="15"/>
       <c r="D79" s="15"/>
       <c r="E79" s="15">
-        <v>0</v>
+        <v>1676459</v>
       </c>
       <c r="F79" s="15">
-        <v>1676459</v>
+        <v>2430967</v>
       </c>
       <c r="G79" s="15">
-        <v>2430967</v>
+        <v>5266677</v>
       </c>
       <c r="H79" s="15">
-        <v>5266677</v>
+        <v>8589132</v>
       </c>
       <c r="I79" s="15">
-        <v>8589132</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+        <v>12942631</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -1987,7 +1987,7 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -1997,7 +1997,7 @@
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2007,9 +2007,9 @@
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
     </row>
-    <row r="83" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B83" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
@@ -2029,7 +2029,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -2039,77 +2039,77 @@
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D85" s="9"/>
-      <c r="E85" s="9" t="s">
+      <c r="E85" s="9">
+        <v>15852</v>
+      </c>
+      <c r="F85" s="9">
+        <v>410</v>
+      </c>
+      <c r="G85" s="9">
+        <v>23414</v>
+      </c>
+      <c r="H85" s="9">
+        <v>78517</v>
+      </c>
+      <c r="I85" s="9">
+        <v>317300</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B86" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F85" s="9">
-        <v>15852</v>
-      </c>
-      <c r="G85" s="9">
-        <v>410</v>
-      </c>
-      <c r="H85" s="9">
-        <v>23414</v>
-      </c>
-      <c r="I85" s="9">
-        <v>78517</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B86" s="10" t="s">
-        <v>27</v>
-      </c>
       <c r="C86" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D86" s="11"/>
-      <c r="E86" s="11" t="s">
-        <v>26</v>
+      <c r="E86" s="11">
+        <v>114742</v>
       </c>
       <c r="F86" s="11">
-        <v>114742</v>
+        <v>147202</v>
       </c>
       <c r="G86" s="11">
-        <v>147202</v>
+        <v>292780</v>
       </c>
       <c r="H86" s="11">
-        <v>292780</v>
+        <v>563993</v>
       </c>
       <c r="I86" s="11">
-        <v>563993</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1628309</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C87" s="15"/>
       <c r="D87" s="15"/>
       <c r="E87" s="15">
-        <v>0</v>
+        <v>130594</v>
       </c>
       <c r="F87" s="15">
-        <v>130594</v>
+        <v>147612</v>
       </c>
       <c r="G87" s="15">
-        <v>147612</v>
+        <v>316194</v>
       </c>
       <c r="H87" s="15">
-        <v>316194</v>
+        <v>642510</v>
       </c>
       <c r="I87" s="15">
-        <v>642510</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1945609</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2119,7 +2119,7 @@
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -2129,7 +2129,7 @@
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2139,9 +2139,9 @@
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
     </row>
-    <row r="91" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B91" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
@@ -2161,7 +2161,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -2171,41 +2171,55 @@
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C93" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D93" s="9"/>
+      <c r="E93" s="9">
+        <v>15412338</v>
+      </c>
+      <c r="F93" s="9">
+        <v>23695067</v>
+      </c>
+      <c r="G93" s="9">
+        <v>17083333</v>
+      </c>
+      <c r="H93" s="9">
+        <v>56692494</v>
+      </c>
+      <c r="I93" s="9">
+        <v>86472467</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B94" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C94" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D93" s="9"/>
-      <c r="E93" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F93" s="9">
-        <v>15412338</v>
-      </c>
-      <c r="G93" s="9">
-        <v>23695067</v>
-      </c>
-      <c r="H93" s="9">
-        <v>17083333</v>
-      </c>
-      <c r="I93" s="9">
-        <v>56692494</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
-      <c r="G94" s="1"/>
-      <c r="H94" s="1"/>
-      <c r="I94" s="1"/>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D94" s="11"/>
+      <c r="E94" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F94" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G94" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H94" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I94" s="11">
+        <v>281996500000</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -2215,7 +2229,7 @@
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -2225,97 +2239,97 @@
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
     </row>
-    <row r="97" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B97" s="7" t="s">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+    </row>
+    <row r="98" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B98" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F98" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G98" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H98" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I98" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B100" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D100" s="9"/>
+      <c r="E100" s="9">
+        <v>25081282</v>
+      </c>
+      <c r="F100" s="9">
+        <v>35053039</v>
+      </c>
+      <c r="G100" s="9">
+        <v>75931686</v>
+      </c>
+      <c r="H100" s="9">
+        <v>112665334</v>
+      </c>
+      <c r="I100" s="9">
+        <v>137156496</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B101" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C101" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D101" s="11"/>
+      <c r="E101" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C97" s="6"/>
-      <c r="D97" s="6"/>
-      <c r="E97" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F97" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G97" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H97" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I97" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
-      <c r="G98" s="1"/>
-      <c r="H98" s="1"/>
-      <c r="I98" s="1"/>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B99" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C99" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D99" s="9"/>
-      <c r="E99" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F99" s="9">
-        <v>25081282</v>
-      </c>
-      <c r="G99" s="9">
-        <v>35053039</v>
-      </c>
-      <c r="H99" s="9">
-        <v>75931686</v>
-      </c>
-      <c r="I99" s="9">
-        <v>112665334</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B100" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C100" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D100" s="11"/>
-      <c r="E100" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F100" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G100" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H100" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I100" s="11">
+      <c r="F101" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G101" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H101" s="11">
         <v>1511863500000</v>
       </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
-      <c r="G101" s="1"/>
-      <c r="H101" s="1"/>
-      <c r="I101" s="1"/>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I101" s="11">
+        <v>2897210500000</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -2325,7 +2339,7 @@
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -2335,97 +2349,97 @@
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
     </row>
-    <row r="104" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B104" s="7" t="s">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+    </row>
+    <row r="105" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B105" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C104" s="6"/>
-      <c r="D104" s="6"/>
-      <c r="E104" s="6" t="s">
+      <c r="C105" s="6"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F104" s="6" t="s">
+      <c r="F105" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G104" s="6" t="s">
+      <c r="G105" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H104" s="6" t="s">
+      <c r="H105" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I104" s="6" t="s">
+      <c r="I105" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-      <c r="E105" s="1"/>
-      <c r="F105" s="1"/>
-      <c r="G105" s="1"/>
-      <c r="H105" s="1"/>
-      <c r="I105" s="1"/>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B106" s="8" t="s">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
+      <c r="I106" s="1"/>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B107" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C106" s="9" t="s">
+      <c r="C107" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D107" s="9"/>
+      <c r="E107" s="9">
+        <v>24971984</v>
+      </c>
+      <c r="F107" s="9">
+        <v>34891634</v>
+      </c>
+      <c r="G107" s="9">
+        <v>76068788</v>
+      </c>
+      <c r="H107" s="9">
+        <v>112680374</v>
+      </c>
+      <c r="I107" s="9">
+        <v>135439772</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B108" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C108" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D106" s="9"/>
-      <c r="E106" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F106" s="9">
-        <v>24971984</v>
-      </c>
-      <c r="G106" s="9">
-        <v>34891634</v>
-      </c>
-      <c r="H106" s="9">
-        <v>76068788</v>
-      </c>
-      <c r="I106" s="9">
-        <v>112680374</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B107" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C107" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D107" s="11"/>
-      <c r="E107" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F107" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G107" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H107" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I107" s="11">
+      <c r="D108" s="11"/>
+      <c r="E108" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F108" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G108" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H108" s="11">
         <v>1376257000000</v>
       </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-      <c r="E108" s="1"/>
-      <c r="F108" s="1"/>
-      <c r="G108" s="1"/>
-      <c r="H108" s="1"/>
-      <c r="I108" s="1"/>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I108" s="11">
+        <v>2365052500000</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -2435,7 +2449,7 @@
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -2445,83 +2459,95 @@
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
     </row>
-    <row r="111" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B111" s="7" t="s">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+      <c r="H111" s="1"/>
+      <c r="I111" s="1"/>
+    </row>
+    <row r="112" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B112" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C111" s="6"/>
-      <c r="D111" s="6"/>
-      <c r="E111" s="6" t="s">
+      <c r="C112" s="6"/>
+      <c r="D112" s="6"/>
+      <c r="E112" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F111" s="6" t="s">
+      <c r="F112" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G111" s="6" t="s">
+      <c r="G112" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H111" s="6" t="s">
+      <c r="H112" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I111" s="6" t="s">
+      <c r="I112" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B112" s="1"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
-      <c r="E112" s="1"/>
-      <c r="F112" s="1"/>
-      <c r="G112" s="1"/>
-      <c r="H112" s="1"/>
-      <c r="I112" s="1"/>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B113" s="8" t="s">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1"/>
+      <c r="H113" s="1"/>
+      <c r="I113" s="1"/>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B114" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C113" s="9" t="s">
+      <c r="C114" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D113" s="9"/>
-      <c r="E113" s="9" t="s">
+      <c r="D114" s="9"/>
+      <c r="E114" s="9">
+        <v>23695067</v>
+      </c>
+      <c r="F114" s="9">
+        <v>17083333</v>
+      </c>
+      <c r="G114" s="9">
+        <v>56692494</v>
+      </c>
+      <c r="H114" s="9">
+        <v>86377338</v>
+      </c>
+      <c r="I114" s="9">
+        <v>167883598</v>
+      </c>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B115" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F113" s="9">
-        <v>23695067</v>
-      </c>
-      <c r="G113" s="9">
-        <v>17083333</v>
-      </c>
-      <c r="H113" s="9">
-        <v>56692494</v>
-      </c>
-      <c r="I113" s="9">
-        <v>86377338</v>
-      </c>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B114" s="1"/>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
-      <c r="E114" s="1"/>
-      <c r="F114" s="1"/>
-      <c r="G114" s="1"/>
-      <c r="H114" s="1"/>
-      <c r="I114" s="1"/>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B115" s="1"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-      <c r="E115" s="1"/>
-      <c r="F115" s="1"/>
-      <c r="G115" s="1"/>
-      <c r="H115" s="1"/>
-      <c r="I115" s="1"/>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C115" s="11"/>
+      <c r="D115" s="11"/>
+      <c r="E115" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F115" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G115" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H115" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I115" s="11">
+        <v>814154500000</v>
+      </c>
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -2531,29 +2557,17 @@
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
     </row>
-    <row r="117" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B117" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C117" s="6"/>
-      <c r="D117" s="6"/>
-      <c r="E117" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F117" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G117" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H117" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I117" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1"/>
+      <c r="G117" s="1"/>
+      <c r="H117" s="1"/>
+      <c r="I117" s="1"/>
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -2563,53 +2577,41 @@
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B119" s="8" t="s">
+    <row r="119" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B119" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C119" s="6"/>
+      <c r="D119" s="6"/>
+      <c r="E119" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F119" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G119" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H119" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I119" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
+      <c r="F120" s="1"/>
+      <c r="G120" s="1"/>
+      <c r="H120" s="1"/>
+      <c r="I120" s="1"/>
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B121" s="8" t="s">
         <v>43</v>
-      </c>
-      <c r="C119" s="9"/>
-      <c r="D119" s="9"/>
-      <c r="E119" s="9">
-        <v>0</v>
-      </c>
-      <c r="F119" s="9">
-        <v>0</v>
-      </c>
-      <c r="G119" s="9">
-        <v>0</v>
-      </c>
-      <c r="H119" s="9">
-        <v>0</v>
-      </c>
-      <c r="I119" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B120" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C120" s="11"/>
-      <c r="D120" s="11"/>
-      <c r="E120" s="11">
-        <v>0</v>
-      </c>
-      <c r="F120" s="11">
-        <v>0</v>
-      </c>
-      <c r="G120" s="11">
-        <v>0</v>
-      </c>
-      <c r="H120" s="11">
-        <v>0</v>
-      </c>
-      <c r="I120" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B121" s="8" t="s">
-        <v>45</v>
       </c>
       <c r="C121" s="9"/>
       <c r="D121" s="9"/>
@@ -2629,9 +2631,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B122" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C122" s="11"/>
       <c r="D122" s="11"/>
@@ -2651,158 +2653,202 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B123" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
       <c r="E123" s="9">
-        <v>27825</v>
+        <v>0</v>
       </c>
       <c r="F123" s="9">
-        <v>29509</v>
+        <v>0</v>
       </c>
       <c r="G123" s="9">
-        <v>30802</v>
+        <v>0</v>
       </c>
       <c r="H123" s="9">
-        <v>97736</v>
+        <v>0</v>
       </c>
       <c r="I123" s="9">
-        <v>129196</v>
-      </c>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B124" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C124" s="11"/>
       <c r="D124" s="11"/>
       <c r="E124" s="11">
-        <v>115138</v>
+        <v>0</v>
       </c>
       <c r="F124" s="11">
-        <v>132941</v>
+        <v>0</v>
       </c>
       <c r="G124" s="11">
-        <v>151798</v>
+        <v>0</v>
       </c>
       <c r="H124" s="11">
-        <v>165291</v>
+        <v>0</v>
       </c>
       <c r="I124" s="11">
-        <v>333180</v>
-      </c>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B125" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C125" s="9"/>
       <c r="D125" s="9"/>
       <c r="E125" s="9">
-        <v>37779</v>
+        <v>29509</v>
       </c>
       <c r="F125" s="9">
-        <v>42580</v>
+        <v>30802</v>
       </c>
       <c r="G125" s="9">
-        <v>45839</v>
+        <v>97736</v>
       </c>
       <c r="H125" s="9">
-        <v>53787</v>
+        <v>129196</v>
       </c>
       <c r="I125" s="9">
-        <v>83090</v>
-      </c>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+        <v>547178</v>
+      </c>
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B126" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C126" s="11"/>
       <c r="D126" s="11"/>
       <c r="E126" s="11">
-        <v>160887</v>
+        <v>132941</v>
       </c>
       <c r="F126" s="11">
-        <v>197520</v>
+        <v>151798</v>
       </c>
       <c r="G126" s="11">
-        <v>217725</v>
+        <v>165291</v>
       </c>
       <c r="H126" s="11">
-        <v>348982</v>
+        <v>333180</v>
       </c>
       <c r="I126" s="11">
-        <v>477646</v>
-      </c>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+        <v>449046</v>
+      </c>
+    </row>
+    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B127" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C127" s="9"/>
       <c r="D127" s="9"/>
       <c r="E127" s="9">
-        <v>0</v>
+        <v>42580</v>
       </c>
       <c r="F127" s="9">
-        <v>0</v>
+        <v>45839</v>
       </c>
       <c r="G127" s="9">
-        <v>0</v>
+        <v>53787</v>
       </c>
       <c r="H127" s="9">
-        <v>0</v>
+        <v>83090</v>
       </c>
       <c r="I127" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+        <v>155057</v>
+      </c>
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B128" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C128" s="11"/>
       <c r="D128" s="11"/>
       <c r="E128" s="11">
-        <v>211118</v>
+        <v>197520</v>
       </c>
       <c r="F128" s="11">
+        <v>217725</v>
+      </c>
+      <c r="G128" s="11">
+        <v>348982</v>
+      </c>
+      <c r="H128" s="11">
+        <v>477646</v>
+      </c>
+      <c r="I128" s="11">
+        <v>850192</v>
+      </c>
+    </row>
+    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B129" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C129" s="9"/>
+      <c r="D129" s="9"/>
+      <c r="E129" s="9">
+        <v>0</v>
+      </c>
+      <c r="F129" s="9">
+        <v>0</v>
+      </c>
+      <c r="G129" s="9">
+        <v>0</v>
+      </c>
+      <c r="H129" s="9">
+        <v>0</v>
+      </c>
+      <c r="I129" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B130" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C130" s="11"/>
+      <c r="D130" s="11"/>
+      <c r="E130" s="11">
         <v>274519</v>
       </c>
-      <c r="G128" s="11">
+      <c r="F130" s="11">
         <v>359153</v>
       </c>
-      <c r="H128" s="11">
+      <c r="G130" s="11">
         <v>596559</v>
       </c>
-      <c r="I128" s="11">
+      <c r="H130" s="11">
         <v>1166711</v>
       </c>
-    </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B129" s="14" t="s">
+      <c r="I130" s="11">
+        <v>2265648</v>
+      </c>
+    </row>
+    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B131" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C129" s="15"/>
-      <c r="D129" s="15"/>
-      <c r="E129" s="15">
-        <v>552747</v>
-      </c>
-      <c r="F129" s="15">
+      <c r="C131" s="15"/>
+      <c r="D131" s="15"/>
+      <c r="E131" s="15">
         <v>677069</v>
       </c>
-      <c r="G129" s="15">
+      <c r="F131" s="15">
         <v>805317</v>
       </c>
-      <c r="H129" s="15">
+      <c r="G131" s="15">
         <v>1262355</v>
       </c>
-      <c r="I129" s="15">
+      <c r="H131" s="15">
         <v>2189823</v>
+      </c>
+      <c r="I131" s="15">
+        <v>4267121</v>
       </c>
     </row>
   </sheetData>
